--- a/참고자료/성적일람표(2019-10-15).xlsx
+++ b/참고자료/성적일람표(2019-10-15).xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="원본" sheetId="1" r:id="rId1"/>
     <sheet name="작업용" sheetId="2" r:id="rId2"/>
     <sheet name="과목정보" sheetId="5" r:id="rId3"/>
+    <sheet name="학생정보" sheetId="6" r:id="rId4"/>
+    <sheet name="학과정보" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="과목별점수표" localSheetId="0">원본!$A$2:$C$601</definedName>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="402">
   <si>
     <t>담성민</t>
   </si>
@@ -437,6 +439,870 @@
   </si>
   <si>
     <t>S006</t>
+  </si>
+  <si>
+    <t>T0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0002</t>
+  </si>
+  <si>
+    <t>T0003</t>
+  </si>
+  <si>
+    <t>T0004</t>
+  </si>
+  <si>
+    <t>T0005</t>
+  </si>
+  <si>
+    <t>T0006</t>
+  </si>
+  <si>
+    <t>T0007</t>
+  </si>
+  <si>
+    <t>T0008</t>
+  </si>
+  <si>
+    <t>T0009</t>
+  </si>
+  <si>
+    <t>T0010</t>
+  </si>
+  <si>
+    <t>T0011</t>
+  </si>
+  <si>
+    <t>T0012</t>
+  </si>
+  <si>
+    <t>T0013</t>
+  </si>
+  <si>
+    <t>T0014</t>
+  </si>
+  <si>
+    <t>T0015</t>
+  </si>
+  <si>
+    <t>T0016</t>
+  </si>
+  <si>
+    <t>T0017</t>
+  </si>
+  <si>
+    <t>T0018</t>
+  </si>
+  <si>
+    <t>T0019</t>
+  </si>
+  <si>
+    <t>T0020</t>
+  </si>
+  <si>
+    <t>T0021</t>
+  </si>
+  <si>
+    <t>T0022</t>
+  </si>
+  <si>
+    <t>T0023</t>
+  </si>
+  <si>
+    <t>T0024</t>
+  </si>
+  <si>
+    <t>T0025</t>
+  </si>
+  <si>
+    <t>T0026</t>
+  </si>
+  <si>
+    <t>T0027</t>
+  </si>
+  <si>
+    <t>T0028</t>
+  </si>
+  <si>
+    <t>T0029</t>
+  </si>
+  <si>
+    <t>T0030</t>
+  </si>
+  <si>
+    <t>T0031</t>
+  </si>
+  <si>
+    <t>T0032</t>
+  </si>
+  <si>
+    <t>T0033</t>
+  </si>
+  <si>
+    <t>T0034</t>
+  </si>
+  <si>
+    <t>T0035</t>
+  </si>
+  <si>
+    <t>T0036</t>
+  </si>
+  <si>
+    <t>T0037</t>
+  </si>
+  <si>
+    <t>T0038</t>
+  </si>
+  <si>
+    <t>T0039</t>
+  </si>
+  <si>
+    <t>T0040</t>
+  </si>
+  <si>
+    <t>T0041</t>
+  </si>
+  <si>
+    <t>T0042</t>
+  </si>
+  <si>
+    <t>T0043</t>
+  </si>
+  <si>
+    <t>T0044</t>
+  </si>
+  <si>
+    <t>T0045</t>
+  </si>
+  <si>
+    <t>T0046</t>
+  </si>
+  <si>
+    <t>T0047</t>
+  </si>
+  <si>
+    <t>T0048</t>
+  </si>
+  <si>
+    <t>T0049</t>
+  </si>
+  <si>
+    <t>T0050</t>
+  </si>
+  <si>
+    <t>T0051</t>
+  </si>
+  <si>
+    <t>T0052</t>
+  </si>
+  <si>
+    <t>T0053</t>
+  </si>
+  <si>
+    <t>T0054</t>
+  </si>
+  <si>
+    <t>T0055</t>
+  </si>
+  <si>
+    <t>T0056</t>
+  </si>
+  <si>
+    <t>T0057</t>
+  </si>
+  <si>
+    <t>T0058</t>
+  </si>
+  <si>
+    <t>T0059</t>
+  </si>
+  <si>
+    <t>T0060</t>
+  </si>
+  <si>
+    <t>T0061</t>
+  </si>
+  <si>
+    <t>T0062</t>
+  </si>
+  <si>
+    <t>T0063</t>
+  </si>
+  <si>
+    <t>T0064</t>
+  </si>
+  <si>
+    <t>T0065</t>
+  </si>
+  <si>
+    <t>T0066</t>
+  </si>
+  <si>
+    <t>T0067</t>
+  </si>
+  <si>
+    <t>T0068</t>
+  </si>
+  <si>
+    <t>T0069</t>
+  </si>
+  <si>
+    <t>T0070</t>
+  </si>
+  <si>
+    <t>T0071</t>
+  </si>
+  <si>
+    <t>T0072</t>
+  </si>
+  <si>
+    <t>T0073</t>
+  </si>
+  <si>
+    <t>T0074</t>
+  </si>
+  <si>
+    <t>T0075</t>
+  </si>
+  <si>
+    <t>T0076</t>
+  </si>
+  <si>
+    <t>T0077</t>
+  </si>
+  <si>
+    <t>T0078</t>
+  </si>
+  <si>
+    <t>T0079</t>
+  </si>
+  <si>
+    <t>T0080</t>
+  </si>
+  <si>
+    <t>T0081</t>
+  </si>
+  <si>
+    <t>T0082</t>
+  </si>
+  <si>
+    <t>T0083</t>
+  </si>
+  <si>
+    <t>T0084</t>
+  </si>
+  <si>
+    <t>T0085</t>
+  </si>
+  <si>
+    <t>T0086</t>
+  </si>
+  <si>
+    <t>T0087</t>
+  </si>
+  <si>
+    <t>T0088</t>
+  </si>
+  <si>
+    <t>T0089</t>
+  </si>
+  <si>
+    <t>T0090</t>
+  </si>
+  <si>
+    <t>T0091</t>
+  </si>
+  <si>
+    <t>T0092</t>
+  </si>
+  <si>
+    <t>T0093</t>
+  </si>
+  <si>
+    <t>T0094</t>
+  </si>
+  <si>
+    <t>T0095</t>
+  </si>
+  <si>
+    <t>T0096</t>
+  </si>
+  <si>
+    <t>T0097</t>
+  </si>
+  <si>
+    <t>T0098</t>
+  </si>
+  <si>
+    <t>T0099</t>
+  </si>
+  <si>
+    <t>T0100</t>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월요일</t>
+  </si>
+  <si>
+    <t>월요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화요일</t>
+  </si>
+  <si>
+    <t>수요일</t>
+  </si>
+  <si>
+    <t>목요일</t>
+  </si>
+  <si>
+    <t>금요일</t>
+  </si>
+  <si>
+    <t>토요일</t>
+  </si>
+  <si>
+    <t>일요일</t>
+  </si>
+  <si>
+    <t>010-111-1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-111-1112</t>
+  </si>
+  <si>
+    <t>010-111-1113</t>
+  </si>
+  <si>
+    <t>010-111-1114</t>
+  </si>
+  <si>
+    <t>010-111-1115</t>
+  </si>
+  <si>
+    <t>010-111-1116</t>
+  </si>
+  <si>
+    <t>010-111-1117</t>
+  </si>
+  <si>
+    <t>010-111-1118</t>
+  </si>
+  <si>
+    <t>010-111-1119</t>
+  </si>
+  <si>
+    <t>010-111-1120</t>
+  </si>
+  <si>
+    <t>010-111-1121</t>
+  </si>
+  <si>
+    <t>010-111-1122</t>
+  </si>
+  <si>
+    <t>010-111-1123</t>
+  </si>
+  <si>
+    <t>010-111-1124</t>
+  </si>
+  <si>
+    <t>010-111-1125</t>
+  </si>
+  <si>
+    <t>010-111-1126</t>
+  </si>
+  <si>
+    <t>010-111-1127</t>
+  </si>
+  <si>
+    <t>010-111-1128</t>
+  </si>
+  <si>
+    <t>010-111-1129</t>
+  </si>
+  <si>
+    <t>010-111-1130</t>
+  </si>
+  <si>
+    <t>010-111-1131</t>
+  </si>
+  <si>
+    <t>010-111-1132</t>
+  </si>
+  <si>
+    <t>010-111-1133</t>
+  </si>
+  <si>
+    <t>010-111-1134</t>
+  </si>
+  <si>
+    <t>010-111-1135</t>
+  </si>
+  <si>
+    <t>010-111-1136</t>
+  </si>
+  <si>
+    <t>010-111-1137</t>
+  </si>
+  <si>
+    <t>010-111-1138</t>
+  </si>
+  <si>
+    <t>010-111-1139</t>
+  </si>
+  <si>
+    <t>010-111-1140</t>
+  </si>
+  <si>
+    <t>010-111-1141</t>
+  </si>
+  <si>
+    <t>010-111-1142</t>
+  </si>
+  <si>
+    <t>010-111-1143</t>
+  </si>
+  <si>
+    <t>010-111-1144</t>
+  </si>
+  <si>
+    <t>010-111-1145</t>
+  </si>
+  <si>
+    <t>010-111-1146</t>
+  </si>
+  <si>
+    <t>010-111-1147</t>
+  </si>
+  <si>
+    <t>010-111-1148</t>
+  </si>
+  <si>
+    <t>010-111-1149</t>
+  </si>
+  <si>
+    <t>010-111-1150</t>
+  </si>
+  <si>
+    <t>010-111-1151</t>
+  </si>
+  <si>
+    <t>010-111-1152</t>
+  </si>
+  <si>
+    <t>010-111-1153</t>
+  </si>
+  <si>
+    <t>010-111-1154</t>
+  </si>
+  <si>
+    <t>010-111-1155</t>
+  </si>
+  <si>
+    <t>010-111-1156</t>
+  </si>
+  <si>
+    <t>010-111-1157</t>
+  </si>
+  <si>
+    <t>010-111-1158</t>
+  </si>
+  <si>
+    <t>010-111-1159</t>
+  </si>
+  <si>
+    <t>010-111-1160</t>
+  </si>
+  <si>
+    <t>010-111-1161</t>
+  </si>
+  <si>
+    <t>010-111-1162</t>
+  </si>
+  <si>
+    <t>010-111-1163</t>
+  </si>
+  <si>
+    <t>010-111-1164</t>
+  </si>
+  <si>
+    <t>010-111-1165</t>
+  </si>
+  <si>
+    <t>010-111-1166</t>
+  </si>
+  <si>
+    <t>010-111-1167</t>
+  </si>
+  <si>
+    <t>010-111-1168</t>
+  </si>
+  <si>
+    <t>010-111-1169</t>
+  </si>
+  <si>
+    <t>010-111-1170</t>
+  </si>
+  <si>
+    <t>010-111-1171</t>
+  </si>
+  <si>
+    <t>010-111-1172</t>
+  </si>
+  <si>
+    <t>010-111-1173</t>
+  </si>
+  <si>
+    <t>010-111-1174</t>
+  </si>
+  <si>
+    <t>010-111-1175</t>
+  </si>
+  <si>
+    <t>010-111-1176</t>
+  </si>
+  <si>
+    <t>010-111-1177</t>
+  </si>
+  <si>
+    <t>010-111-1178</t>
+  </si>
+  <si>
+    <t>010-111-1179</t>
+  </si>
+  <si>
+    <t>010-111-1180</t>
+  </si>
+  <si>
+    <t>010-111-1181</t>
+  </si>
+  <si>
+    <t>010-111-1182</t>
+  </si>
+  <si>
+    <t>010-111-1183</t>
+  </si>
+  <si>
+    <t>010-111-1184</t>
+  </si>
+  <si>
+    <t>010-111-1185</t>
+  </si>
+  <si>
+    <t>010-111-1186</t>
+  </si>
+  <si>
+    <t>010-111-1187</t>
+  </si>
+  <si>
+    <t>010-111-1188</t>
+  </si>
+  <si>
+    <t>010-111-1189</t>
+  </si>
+  <si>
+    <t>010-111-1190</t>
+  </si>
+  <si>
+    <t>010-111-1191</t>
+  </si>
+  <si>
+    <t>010-111-1192</t>
+  </si>
+  <si>
+    <t>010-111-1193</t>
+  </si>
+  <si>
+    <t>010-111-1194</t>
+  </si>
+  <si>
+    <t>010-111-1195</t>
+  </si>
+  <si>
+    <t>010-111-1196</t>
+  </si>
+  <si>
+    <t>010-111-1197</t>
+  </si>
+  <si>
+    <t>010-111-1198</t>
+  </si>
+  <si>
+    <t>010-111-1199</t>
+  </si>
+  <si>
+    <t>010-111-1200</t>
+  </si>
+  <si>
+    <t>010-111-1201</t>
+  </si>
+  <si>
+    <t>010-111-1202</t>
+  </si>
+  <si>
+    <t>010-111-1203</t>
+  </si>
+  <si>
+    <t>010-111-1204</t>
+  </si>
+  <si>
+    <t>010-111-1205</t>
+  </si>
+  <si>
+    <t>010-111-1206</t>
+  </si>
+  <si>
+    <t>010-111-1207</t>
+  </si>
+  <si>
+    <t>010-111-1208</t>
+  </si>
+  <si>
+    <t>010-111-1209</t>
+  </si>
+  <si>
+    <t>010-111-1210</t>
+  </si>
+  <si>
+    <t>학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0008</t>
+  </si>
+  <si>
+    <t>D0006</t>
+  </si>
+  <si>
+    <t>D0003</t>
+  </si>
+  <si>
+    <t>D0005</t>
+  </si>
+  <si>
+    <t>D0009</t>
+  </si>
+  <si>
+    <t>D0001</t>
+  </si>
+  <si>
+    <t>D0004</t>
+  </si>
+  <si>
+    <t>D0002</t>
+  </si>
+  <si>
+    <t>D0010</t>
+  </si>
+  <si>
+    <t>D0007</t>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0011</t>
+  </si>
+  <si>
+    <t>D0012</t>
+  </si>
+  <si>
+    <t>D0013</t>
+  </si>
+  <si>
+    <t>D0014</t>
+  </si>
+  <si>
+    <t>D0015</t>
+  </si>
+  <si>
+    <t>D0016</t>
+  </si>
+  <si>
+    <t>D0017</t>
+  </si>
+  <si>
+    <t>D0018</t>
+  </si>
+  <si>
+    <t>D0019</t>
+  </si>
+  <si>
+    <t>D0020</t>
+  </si>
+  <si>
+    <t>컴퓨터공학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자계산학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기공학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정치외교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연극영화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어영문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일어일문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중어중문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어국문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유전공학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수의학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간호학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호텔경영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경제학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보통신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>062-720-1112</t>
+  </si>
+  <si>
+    <t>062-720-1113</t>
+  </si>
+  <si>
+    <t>062-720-1114</t>
+  </si>
+  <si>
+    <t>062-720-1115</t>
+  </si>
+  <si>
+    <t>062-720-1116</t>
+  </si>
+  <si>
+    <t>062-720-1117</t>
+  </si>
+  <si>
+    <t>062-720-1118</t>
+  </si>
+  <si>
+    <t>062-720-1119</t>
+  </si>
+  <si>
+    <t>062-720-1120</t>
+  </si>
+  <si>
+    <t>062-720-1121</t>
+  </si>
+  <si>
+    <t>062-720-1122</t>
+  </si>
+  <si>
+    <t>062-720-1123</t>
+  </si>
+  <si>
+    <t>062-720-1124</t>
+  </si>
+  <si>
+    <t>062-720-1125</t>
+  </si>
+  <si>
+    <t>062-720-1126</t>
+  </si>
+  <si>
+    <t>062-720-1127</t>
+  </si>
+  <si>
+    <t>062-720-1128</t>
+  </si>
+  <si>
+    <t>062-720-1129</t>
+  </si>
+  <si>
+    <t>062-720-1130</t>
+  </si>
+  <si>
+    <t>062-720-1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -488,7 +1354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -496,6 +1362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -15864,7 +16731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -15955,4 +16822,3102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2">
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="H2" t="str">
+        <f ca="1">"D"&amp;TEXT(RANDBETWEEN(1,10),"0000")</f>
+        <v>D0010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" ca="1" si="0">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" ca="1" si="1">"D"&amp;TEXT(RANDBETWEEN(1,10),"0000")</f>
+        <v>D0003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>343</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>338</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>341</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>342</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>344</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>345</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>338</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>340</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>345</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>345</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>254</v>
+      </c>
+      <c r="D20" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>341</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0010</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>341</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D22" t="s">
+        <v>235</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>341</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>338</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D24" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>346</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" t="s">
+        <v>231</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>340</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D26" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>341</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>346</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>339</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" t="s">
+        <v>235</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>341</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>265</v>
+      </c>
+      <c r="D31" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>342</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32" t="s">
+        <v>231</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>344</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" t="s">
+        <v>232</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>345</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>268</v>
+      </c>
+      <c r="D34" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>344</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" t="s">
+        <v>234</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>343</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>270</v>
+      </c>
+      <c r="D36" t="s">
+        <v>235</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>345</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>345</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>341</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>273</v>
+      </c>
+      <c r="D39" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>345</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>274</v>
+      </c>
+      <c r="D40" t="s">
+        <v>232</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>342</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0008</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" t="s">
+        <v>233</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>347</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" t="s">
+        <v>234</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>341</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>277</v>
+      </c>
+      <c r="D43" t="s">
+        <v>235</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>347</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>278</v>
+      </c>
+      <c r="D44" t="s">
+        <v>228</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>338</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" t="s">
+        <v>279</v>
+      </c>
+      <c r="D45" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>341</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0009</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>280</v>
+      </c>
+      <c r="D46" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>345</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>281</v>
+      </c>
+      <c r="D47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>339</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>282</v>
+      </c>
+      <c r="D48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>346</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>283</v>
+      </c>
+      <c r="D49" t="s">
+        <v>234</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>339</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0009</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>284</v>
+      </c>
+      <c r="D50" t="s">
+        <v>235</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>343</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D51" t="s">
+        <v>228</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>344</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0009</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>286</v>
+      </c>
+      <c r="D52" t="s">
+        <v>230</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>343</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0010</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>287</v>
+      </c>
+      <c r="D53" t="s">
+        <v>231</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>345</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
+        <v>288</v>
+      </c>
+      <c r="D54" t="s">
+        <v>232</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>346</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s">
+        <v>289</v>
+      </c>
+      <c r="D55" t="s">
+        <v>233</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>343</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0009</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" t="s">
+        <v>290</v>
+      </c>
+      <c r="D56" t="s">
+        <v>234</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>345</v>
+      </c>
+      <c r="G56">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>180</v>
+      </c>
+      <c r="B57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" t="s">
+        <v>291</v>
+      </c>
+      <c r="D57" t="s">
+        <v>235</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>338</v>
+      </c>
+      <c r="G57">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>292</v>
+      </c>
+      <c r="D58" t="s">
+        <v>228</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>347</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" t="s">
+        <v>293</v>
+      </c>
+      <c r="D59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>341</v>
+      </c>
+      <c r="G59">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0010</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" t="s">
+        <v>294</v>
+      </c>
+      <c r="D60" t="s">
+        <v>231</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>342</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>184</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>295</v>
+      </c>
+      <c r="D61" t="s">
+        <v>232</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>343</v>
+      </c>
+      <c r="G61">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0010</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>296</v>
+      </c>
+      <c r="D62" t="s">
+        <v>233</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62" t="s">
+        <v>346</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0009</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>297</v>
+      </c>
+      <c r="D63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>345</v>
+      </c>
+      <c r="G63">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>298</v>
+      </c>
+      <c r="D64" t="s">
+        <v>235</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>343</v>
+      </c>
+      <c r="G64">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" t="s">
+        <v>299</v>
+      </c>
+      <c r="D65" t="s">
+        <v>228</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65" t="s">
+        <v>347</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>189</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" t="s">
+        <v>300</v>
+      </c>
+      <c r="D66" t="s">
+        <v>230</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>344</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D0006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" t="s">
+        <v>301</v>
+      </c>
+      <c r="D67" t="s">
+        <v>231</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>344</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G101" ca="1" si="2">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H101" ca="1" si="3">"D"&amp;TEXT(RANDBETWEEN(1,10),"0000")</f>
+        <v>D0003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" t="s">
+        <v>302</v>
+      </c>
+      <c r="D68" t="s">
+        <v>232</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68" t="s">
+        <v>345</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" t="s">
+        <v>303</v>
+      </c>
+      <c r="D69" t="s">
+        <v>233</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>339</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>193</v>
+      </c>
+      <c r="B70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" t="s">
+        <v>304</v>
+      </c>
+      <c r="D70" t="s">
+        <v>234</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70" t="s">
+        <v>347</v>
+      </c>
+      <c r="G70">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" t="s">
+        <v>305</v>
+      </c>
+      <c r="D71" t="s">
+        <v>235</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>339</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" t="s">
+        <v>306</v>
+      </c>
+      <c r="D72" t="s">
+        <v>228</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>343</v>
+      </c>
+      <c r="G72">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" t="s">
+        <v>307</v>
+      </c>
+      <c r="D73" t="s">
+        <v>230</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73" t="s">
+        <v>345</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>308</v>
+      </c>
+      <c r="D74" t="s">
+        <v>231</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>338</v>
+      </c>
+      <c r="G74">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>198</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>309</v>
+      </c>
+      <c r="D75" t="s">
+        <v>232</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75" t="s">
+        <v>346</v>
+      </c>
+      <c r="G75">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" t="s">
+        <v>310</v>
+      </c>
+      <c r="D76" t="s">
+        <v>233</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>347</v>
+      </c>
+      <c r="G76">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>200</v>
+      </c>
+      <c r="B77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" t="s">
+        <v>311</v>
+      </c>
+      <c r="D77" t="s">
+        <v>234</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77" t="s">
+        <v>339</v>
+      </c>
+      <c r="G77">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" t="s">
+        <v>312</v>
+      </c>
+      <c r="D78" t="s">
+        <v>235</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>340</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0009</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" t="s">
+        <v>313</v>
+      </c>
+      <c r="D79" t="s">
+        <v>228</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>341</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>203</v>
+      </c>
+      <c r="B80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" t="s">
+        <v>314</v>
+      </c>
+      <c r="D80" t="s">
+        <v>230</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80" t="s">
+        <v>346</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>204</v>
+      </c>
+      <c r="B81" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" t="s">
+        <v>315</v>
+      </c>
+      <c r="D81" t="s">
+        <v>231</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>341</v>
+      </c>
+      <c r="G81">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" t="s">
+        <v>316</v>
+      </c>
+      <c r="D82" t="s">
+        <v>232</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>344</v>
+      </c>
+      <c r="G82">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0008</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>206</v>
+      </c>
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>317</v>
+      </c>
+      <c r="D83" t="s">
+        <v>233</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83" t="s">
+        <v>345</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0008</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>207</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" t="s">
+        <v>318</v>
+      </c>
+      <c r="D84" t="s">
+        <v>234</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84" t="s">
+        <v>342</v>
+      </c>
+      <c r="G84">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>208</v>
+      </c>
+      <c r="B85" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" t="s">
+        <v>319</v>
+      </c>
+      <c r="D85" t="s">
+        <v>235</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85" t="s">
+        <v>339</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0010</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>209</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>320</v>
+      </c>
+      <c r="D86" t="s">
+        <v>228</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86" t="s">
+        <v>344</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>210</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>321</v>
+      </c>
+      <c r="D87" t="s">
+        <v>230</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s">
+        <v>340</v>
+      </c>
+      <c r="G87">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>211</v>
+      </c>
+      <c r="B88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" t="s">
+        <v>322</v>
+      </c>
+      <c r="D88" t="s">
+        <v>231</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>346</v>
+      </c>
+      <c r="G88">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>212</v>
+      </c>
+      <c r="B89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" t="s">
+        <v>323</v>
+      </c>
+      <c r="D89" t="s">
+        <v>232</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89" t="s">
+        <v>346</v>
+      </c>
+      <c r="G89">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0007</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>213</v>
+      </c>
+      <c r="B90" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" t="s">
+        <v>324</v>
+      </c>
+      <c r="D90" t="s">
+        <v>233</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90" t="s">
+        <v>345</v>
+      </c>
+      <c r="G90">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>214</v>
+      </c>
+      <c r="B91" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" t="s">
+        <v>325</v>
+      </c>
+      <c r="D91" t="s">
+        <v>234</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>340</v>
+      </c>
+      <c r="G91">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>215</v>
+      </c>
+      <c r="B92" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92" t="s">
+        <v>326</v>
+      </c>
+      <c r="D92" t="s">
+        <v>235</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92" t="s">
+        <v>347</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>216</v>
+      </c>
+      <c r="B93" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" t="s">
+        <v>327</v>
+      </c>
+      <c r="D93" t="s">
+        <v>228</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s">
+        <v>341</v>
+      </c>
+      <c r="G93">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0008</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>217</v>
+      </c>
+      <c r="B94" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" t="s">
+        <v>328</v>
+      </c>
+      <c r="D94" t="s">
+        <v>230</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94" t="s">
+        <v>347</v>
+      </c>
+      <c r="G94">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>218</v>
+      </c>
+      <c r="B95" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" t="s">
+        <v>329</v>
+      </c>
+      <c r="D95" t="s">
+        <v>231</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95" t="s">
+        <v>343</v>
+      </c>
+      <c r="G95">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>219</v>
+      </c>
+      <c r="B96" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" t="s">
+        <v>330</v>
+      </c>
+      <c r="D96" t="s">
+        <v>232</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96" t="s">
+        <v>345</v>
+      </c>
+      <c r="G96">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0010</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>220</v>
+      </c>
+      <c r="B97" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" t="s">
+        <v>331</v>
+      </c>
+      <c r="D97" t="s">
+        <v>233</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>343</v>
+      </c>
+      <c r="G97">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0010</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>221</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>332</v>
+      </c>
+      <c r="D98" t="s">
+        <v>234</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>346</v>
+      </c>
+      <c r="G98">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>222</v>
+      </c>
+      <c r="B99" t="s">
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
+        <v>333</v>
+      </c>
+      <c r="D99" t="s">
+        <v>235</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>340</v>
+      </c>
+      <c r="G99">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>223</v>
+      </c>
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" t="s">
+        <v>334</v>
+      </c>
+      <c r="D100" t="s">
+        <v>228</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>338</v>
+      </c>
+      <c r="G100">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0008</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>224</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" t="s">
+        <v>335</v>
+      </c>
+      <c r="D101" t="s">
+        <v>230</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>343</v>
+      </c>
+      <c r="G101">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>D0002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B14" t="s">
+        <v>374</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15" t="s">
+        <v>375</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>356</v>
+      </c>
+      <c r="B16" t="s">
+        <v>376</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" t="s">
+        <v>377</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18" t="s">
+        <v>378</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>359</v>
+      </c>
+      <c r="B19" t="s">
+        <v>379</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>360</v>
+      </c>
+      <c r="B20" t="s">
+        <v>380</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B21" t="s">
+        <v>381</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/참고자료/성적일람표(2019-10-15).xlsx
+++ b/참고자료/성적일람표(2019-10-15).xlsx
@@ -1643,7 +1643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1653,7 +1653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C601"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -8286,8 +8286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E601"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16884,7 +16884,7 @@
       </c>
       <c r="H2" t="str">
         <f ca="1">"D"&amp;TEXT(RANDBETWEEN(1,10),"0000")</f>
-        <v>D0010</v>
+        <v>D0008</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -16908,11 +16908,11 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" ca="1" si="1">"D"&amp;TEXT(RANDBETWEEN(1,10),"0000")</f>
-        <v>D0003</v>
+        <v>D0005</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0006</v>
+        <v>D0003</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -16964,11 +16964,11 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0004</v>
+        <v>D0006</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -16992,11 +16992,11 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0002</v>
+        <v>D0009</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -17020,11 +17020,11 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0005</v>
+        <v>D0006</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -17048,11 +17048,11 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0005</v>
+        <v>D0002</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -17076,11 +17076,11 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0002</v>
+        <v>D0003</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -17104,7 +17104,7 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -17132,11 +17132,11 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0007</v>
+        <v>D0004</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -17160,11 +17160,11 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0008</v>
+        <v>D0001</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -17188,11 +17188,11 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0006</v>
+        <v>D0002</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -17216,11 +17216,11 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0001</v>
+        <v>D0008</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -17244,11 +17244,11 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0003</v>
+        <v>D0002</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -17272,11 +17272,11 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0007</v>
+        <v>D0004</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -17300,11 +17300,11 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0007</v>
+        <v>D0009</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -17328,11 +17328,11 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0005</v>
+        <v>D0001</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -17356,11 +17356,11 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0004</v>
+        <v>D0002</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -17384,11 +17384,11 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0010</v>
+        <v>D0007</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="H21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0008</v>
+        <v>D0010</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -17440,7 +17440,7 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -17468,11 +17468,11 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0009</v>
+        <v>D0004</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -17496,11 +17496,11 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0003</v>
+        <v>D0010</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -17524,11 +17524,11 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0005</v>
+        <v>D0004</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -17584,7 +17584,7 @@
       </c>
       <c r="H27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0004</v>
+        <v>D0009</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -17612,7 +17612,7 @@
       </c>
       <c r="H28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0001</v>
+        <v>D0005</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -17636,11 +17636,11 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0004</v>
+        <v>D0006</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -17664,11 +17664,11 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0008</v>
+        <v>D0007</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -17696,7 +17696,7 @@
       </c>
       <c r="H31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0002</v>
+        <v>D0005</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -17748,11 +17748,11 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0001</v>
+        <v>D0003</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -17776,11 +17776,11 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0007</v>
+        <v>D0001</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -17804,11 +17804,11 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0010</v>
+        <v>D0003</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -17836,7 +17836,7 @@
       </c>
       <c r="H36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0003</v>
+        <v>D0002</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -17860,11 +17860,11 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0004</v>
+        <v>D0003</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -17888,11 +17888,11 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0003</v>
+        <v>D0010</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -17916,11 +17916,11 @@
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0009</v>
+        <v>D0008</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -17944,11 +17944,11 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0008</v>
+        <v>D0003</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -17972,11 +17972,11 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0009</v>
+        <v>D0002</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -18004,7 +18004,7 @@
       </c>
       <c r="H42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0002</v>
+        <v>D0001</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -18028,11 +18028,11 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0009</v>
+        <v>D0005</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -18056,11 +18056,11 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0008</v>
+        <v>D0010</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -18084,11 +18084,11 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0009</v>
+        <v>D0007</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -18112,7 +18112,7 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -18140,11 +18140,11 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0007</v>
+        <v>D0006</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -18168,11 +18168,11 @@
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0007</v>
+        <v>D0001</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -18196,11 +18196,11 @@
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0009</v>
+        <v>D0004</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -18228,7 +18228,7 @@
       </c>
       <c r="H50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0007</v>
+        <v>D0009</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -18256,7 +18256,7 @@
       </c>
       <c r="H51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0009</v>
+        <v>D0003</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -18280,11 +18280,11 @@
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0010</v>
+        <v>D0006</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -18312,7 +18312,7 @@
       </c>
       <c r="H53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0004</v>
+        <v>D0001</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -18336,7 +18336,7 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -18364,11 +18364,11 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0009</v>
+        <v>D0010</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -18392,11 +18392,11 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0004</v>
+        <v>D0001</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -18420,7 +18420,7 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -18452,7 +18452,7 @@
       </c>
       <c r="H58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0002</v>
+        <v>D0001</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -18504,11 +18504,11 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0004</v>
+        <v>D0008</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -18532,7 +18532,7 @@
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -18560,11 +18560,11 @@
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0009</v>
+        <v>D0001</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -18588,7 +18588,7 @@
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -18616,11 +18616,11 @@
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0003</v>
+        <v>D0004</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -18644,11 +18644,11 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0006</v>
+        <v>D0010</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -18672,11 +18672,11 @@
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>D0006</v>
+        <v>D0001</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -18700,11 +18700,11 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H101" ca="1" si="3">"D"&amp;TEXT(RANDBETWEEN(1,10),"0000")</f>
-        <v>D0003</v>
+        <v>D0001</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -18728,11 +18728,11 @@
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0004</v>
+        <v>D0009</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -18756,11 +18756,11 @@
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0003</v>
+        <v>D0009</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -18788,7 +18788,7 @@
       </c>
       <c r="H70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0005</v>
+        <v>D0007</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -18812,11 +18812,11 @@
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0007</v>
+        <v>D0004</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="H72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0002</v>
+        <v>D0007</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -18868,11 +18868,11 @@
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0001</v>
+        <v>D0010</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -18896,11 +18896,11 @@
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0006</v>
+        <v>D0004</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -18928,7 +18928,7 @@
       </c>
       <c r="H75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0002</v>
+        <v>D0010</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -18952,11 +18952,11 @@
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0004</v>
+        <v>D0001</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -18984,7 +18984,7 @@
       </c>
       <c r="H77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0004</v>
+        <v>D0001</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -19008,7 +19008,7 @@
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19040,7 +19040,7 @@
       </c>
       <c r="H79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0002</v>
+        <v>D0001</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -19064,11 +19064,11 @@
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0002</v>
+        <v>D0001</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="H81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0007</v>
+        <v>D0008</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -19120,11 +19120,11 @@
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0008</v>
+        <v>D0006</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -19148,11 +19148,11 @@
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0008</v>
+        <v>D0009</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -19176,11 +19176,11 @@
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0002</v>
+        <v>D0007</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -19208,7 +19208,7 @@
       </c>
       <c r="H85" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0010</v>
+        <v>D0008</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -19232,11 +19232,11 @@
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0008</v>
+        <v>D0002</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -19260,11 +19260,11 @@
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0003</v>
+        <v>D0005</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -19288,11 +19288,11 @@
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0003</v>
+        <v>D0008</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -19316,11 +19316,11 @@
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0007</v>
+        <v>D0009</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -19344,11 +19344,11 @@
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0009</v>
+        <v>D0006</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -19372,11 +19372,11 @@
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0004</v>
+        <v>D0003</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -19404,7 +19404,7 @@
       </c>
       <c r="H92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0003</v>
+        <v>D0004</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="H93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0008</v>
+        <v>D0006</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -19456,11 +19456,11 @@
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0003</v>
+        <v>D0005</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -19488,7 +19488,7 @@
       </c>
       <c r="H95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0004</v>
+        <v>D0002</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -19516,7 +19516,7 @@
       </c>
       <c r="H96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0010</v>
+        <v>D0009</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -19540,11 +19540,11 @@
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0010</v>
+        <v>D0001</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -19568,11 +19568,11 @@
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0002</v>
+        <v>D0003</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -19596,11 +19596,11 @@
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0001</v>
+        <v>D0003</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -19624,11 +19624,11 @@
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0008</v>
+        <v>D0009</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -19652,11 +19652,11 @@
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D0002</v>
+        <v>D0006</v>
       </c>
     </row>
   </sheetData>
